--- a/app/skinGui/iniGenerators/leftLeg_Upper_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/leftLeg_Upper_ini_generator.xlsx
@@ -1,24 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000"/>
-  </bookViews>
-  <sheets>
-    <sheet name="4614A" sheetId="1" r:id="rId1"/>
-    <sheet name="4535_1" sheetId="2" r:id="rId2"/>
-    <sheet name="4535_2" sheetId="3" r:id="rId3"/>
-    <sheet name="6450A_1" sheetId="6" r:id="rId4"/>
-    <sheet name="6450A_2" sheetId="4" r:id="rId5"/>
-    <sheet name="6451A" sheetId="7" r:id="rId6"/>
-    <sheet name="4616A" sheetId="8" r:id="rId7"/>
-    <sheet name="final ini" sheetId="5" r:id="rId8"/>
-  </sheets>
-  <calcPr calcId="145621"/>
-</workbook>
-</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="31">
@@ -11623,4391 +11602,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>5620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1681</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 28"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11648532" y="0"/>
-          <a:ext cx="4030178" cy="0"/>
-          <a:chOff x="10981462" y="1799664"/>
-          <a:chExt cx="5588677" cy="4621561"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Group 27"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="10981462" y="1799664"/>
-            <a:ext cx="5588677" cy="4621561"/>
-            <a:chOff x="10824580" y="1351429"/>
-            <a:chExt cx="5588677" cy="4621561"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Picture 1" descr="Octagon.bmp"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10824580" y="1351429"/>
-              <a:ext cx="5588677" cy="4621561"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="6" name="Group 26"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="11482291" y="1533525"/>
-              <a:ext cx="4475329" cy="4017410"/>
-              <a:chOff x="11482291" y="1533525"/>
-              <a:chExt cx="4475329" cy="4017410"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="7" name="TextBox 2"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12557313" y="5286375"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>1</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="8" name="TextBox 3"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13192126" y="4849346"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>2</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="9" name="TextBox 4"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14213543" y="5132854"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>3</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="10" name="TextBox 5"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13805648" y="4248150"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>4</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="11" name="TextBox 6"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13899778" y="3717552"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>5</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="12" name="TextBox 8"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13829181" y="2614893"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>7</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="13" name="TextBox 9"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13219580" y="2124075"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>8</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="14" name="TextBox 10"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14144066" y="1905000"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>9</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="15" name="TextBox 11"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12397251" y="2143125"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>11</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="16" name="TextBox 12"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12597276" y="1533525"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>10</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="17" name="TextBox 13"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12797301" y="2800350"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>12</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="18" name="TextBox 14"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12049308" y="2486025"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>13</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="19" name="TextBox 15"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12578226" y="3600450"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>14</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="20" name="TextBox 16"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12154083" y="3933825"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>15</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="21" name="TextBox 17"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11954058" y="4676775"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>16</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="22" name="TextBox 18"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14751046" y="5010150"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>17</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="23" name="TextBox 19"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14834530" y="3989294"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>18</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="24" name="TextBox 20"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15320305" y="3727076"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>19</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="25" name="TextBox 21"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15594850" y="2875429"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>20</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="26" name="TextBox 22"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14979646" y="2533650"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>21</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="27" name="TextBox 23"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11482291" y="2790825"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>22</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="28" name="TextBox 24"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11491816" y="4010025"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>23</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 7"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14379949" y="3376893"/>
-            <a:ext cx="283614" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>6</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>41728</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>150712</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>522941</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>46190</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="Group 28"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11684640" y="2324653"/>
-          <a:ext cx="4515330" cy="3716684"/>
-          <a:chOff x="10968014" y="1847464"/>
-          <a:chExt cx="5518210" cy="4625913"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="30" name="Group 27"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="10968014" y="1847464"/>
-            <a:ext cx="5518210" cy="4625913"/>
-            <a:chOff x="10811132" y="1399229"/>
-            <a:chExt cx="5518210" cy="4625913"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="32" name="Picture 1" descr="Octagon.bmp"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10811132" y="1399229"/>
-              <a:ext cx="5518210" cy="4563288"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="33" name="Group 26"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="11267099" y="1658047"/>
-              <a:ext cx="4751853" cy="4367095"/>
-              <a:chOff x="11267099" y="1658047"/>
-              <a:chExt cx="4751853" cy="4367095"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="34" name="TextBox 2"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12866656" y="5716555"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>1</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="35" name="TextBox 3"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13420772" y="5410971"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>2</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="36" name="TextBox 4"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14213546" y="5132855"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>3</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="37" name="TextBox 5"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13402164" y="4021111"/>
-                <a:ext cx="374185" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>4</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="38" name="TextBox 6"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14155323" y="4267226"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>5</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="39" name="TextBox 8"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13385347" y="3128720"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>7</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="40" name="TextBox 9"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13380978" y="1658047"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>8</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="41" name="TextBox 10"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14144069" y="1905000"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>9</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="42" name="TextBox 11"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11805472" y="1736844"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>11</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="43" name="TextBox 12"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12610728" y="1915907"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>10</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="44" name="TextBox 13"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12797303" y="2800350"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>12</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="45" name="TextBox 14"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12049311" y="2486025"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>13</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="46" name="TextBox 15"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12578228" y="3600451"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>14</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="47" name="TextBox 16"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11965791" y="4089169"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>15</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="48" name="TextBox 17"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11725418" y="5417641"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>16</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="49" name="TextBox 18"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14831745" y="5344735"/>
-                <a:ext cx="464407" cy="353417"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>17</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="50" name="TextBox 19"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14834529" y="3989295"/>
-                <a:ext cx="473478" cy="250357"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>18</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="51" name="TextBox 20"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15495151" y="4264801"/>
-                <a:ext cx="473478" cy="250357"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>19</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="52" name="TextBox 21"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15594852" y="2875430"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>20</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="53" name="TextBox 22"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14979649" y="2533650"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>21</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="54" name="TextBox 23"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11267099" y="2790826"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>22</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="55" name="TextBox 24"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11330423" y="4272912"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>23</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="TextBox 7"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14379950" y="3376892"/>
-            <a:ext cx="331561" cy="308587"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>6</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Freeform 56"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11228294" y="2286000"/>
-          <a:ext cx="2958353" cy="3720353"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 78442 w 2958353"/>
-            <a:gd name="connsiteY0" fmla="*/ 11206 h 3720353"/>
-            <a:gd name="connsiteX1" fmla="*/ 649942 w 2958353"/>
-            <a:gd name="connsiteY1" fmla="*/ 952500 h 3720353"/>
-            <a:gd name="connsiteX2" fmla="*/ 0 w 2958353"/>
-            <a:gd name="connsiteY2" fmla="*/ 1893794 h 3720353"/>
-            <a:gd name="connsiteX3" fmla="*/ 1221442 w 2958353"/>
-            <a:gd name="connsiteY3" fmla="*/ 3720353 h 3720353"/>
-            <a:gd name="connsiteX4" fmla="*/ 2958353 w 2958353"/>
-            <a:gd name="connsiteY4" fmla="*/ 918882 h 3720353"/>
-            <a:gd name="connsiteX5" fmla="*/ 2353236 w 2958353"/>
-            <a:gd name="connsiteY5" fmla="*/ 0 h 3720353"/>
-            <a:gd name="connsiteX6" fmla="*/ 78442 w 2958353"/>
-            <a:gd name="connsiteY6" fmla="*/ 11206 h 3720353"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="2958353" h="3720353">
-              <a:moveTo>
-                <a:pt x="78442" y="11206"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="649942" y="952500"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="1893794"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1221442" y="3720353"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2958353" y="918882"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2353236" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="78442" y="11206"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="it-IT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>5620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1681</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 28"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11648532" y="0"/>
-          <a:ext cx="4030178" cy="0"/>
-          <a:chOff x="10981462" y="1799664"/>
-          <a:chExt cx="5588677" cy="4621561"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Group 27"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="10981462" y="1799664"/>
-            <a:ext cx="5588677" cy="4621561"/>
-            <a:chOff x="10824580" y="1351429"/>
-            <a:chExt cx="5588677" cy="4621561"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Picture 1" descr="Octagon.bmp"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10824580" y="1351429"/>
-              <a:ext cx="5588677" cy="4621561"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="6" name="Group 26"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="11482291" y="1533525"/>
-              <a:ext cx="4475329" cy="4017410"/>
-              <a:chOff x="11482291" y="1533525"/>
-              <a:chExt cx="4475329" cy="4017410"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="7" name="TextBox 2"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12557313" y="5286375"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>1</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="8" name="TextBox 3"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13192126" y="4849346"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>2</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="9" name="TextBox 4"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14213543" y="5132854"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>3</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="10" name="TextBox 5"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13805648" y="4248150"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>4</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="11" name="TextBox 6"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13899778" y="3717552"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>5</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="12" name="TextBox 8"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13829181" y="2614893"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>7</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="13" name="TextBox 9"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13219580" y="2124075"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>8</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="14" name="TextBox 10"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14144066" y="1905000"/>
-                <a:ext cx="283614" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>9</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="15" name="TextBox 11"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12397251" y="2143125"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>11</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="16" name="TextBox 12"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12597276" y="1533525"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>10</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="17" name="TextBox 13"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12797301" y="2800350"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>12</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="18" name="TextBox 14"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12049308" y="2486025"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>13</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="19" name="TextBox 15"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12578226" y="3600450"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>14</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="20" name="TextBox 16"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12154083" y="3933825"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>15</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="21" name="TextBox 17"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11954058" y="4676775"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>16</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="22" name="TextBox 18"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14751046" y="5010150"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>17</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="23" name="TextBox 19"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14834530" y="3989294"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>18</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="24" name="TextBox 20"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15320305" y="3727076"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>19</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="25" name="TextBox 21"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15594850" y="2875429"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>20</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="26" name="TextBox 22"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14979646" y="2533650"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>21</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="27" name="TextBox 23"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11482291" y="2790825"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>22</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="28" name="TextBox 24"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11491816" y="4010025"/>
-                <a:ext cx="362770" cy="264560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>23</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 7"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14379949" y="3376893"/>
-            <a:ext cx="283614" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>6</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142581</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>105888</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>18677</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1366</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="Group 28"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11785493" y="2279829"/>
-          <a:ext cx="4515331" cy="3716684"/>
-          <a:chOff x="10968014" y="1847464"/>
-          <a:chExt cx="5518210" cy="4625913"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="30" name="Group 27"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="10968014" y="1847464"/>
-            <a:ext cx="5518210" cy="4625913"/>
-            <a:chOff x="10811132" y="1399229"/>
-            <a:chExt cx="5518210" cy="4625913"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="32" name="Picture 1" descr="Octagon.bmp"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10811132" y="1399229"/>
-              <a:ext cx="5518210" cy="4563288"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="33" name="Group 26"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="11267099" y="1658047"/>
-              <a:ext cx="4751853" cy="4367095"/>
-              <a:chOff x="11267099" y="1658047"/>
-              <a:chExt cx="4751853" cy="4367095"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="34" name="TextBox 2"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12866656" y="5716555"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>1</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="35" name="TextBox 3"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13420772" y="5410971"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>2</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="36" name="TextBox 4"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14213546" y="5132855"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>3</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="37" name="TextBox 5"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13402164" y="4021111"/>
-                <a:ext cx="374185" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>4</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="38" name="TextBox 6"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14155323" y="4267226"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>5</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="39" name="TextBox 8"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13385347" y="3128720"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>7</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="40" name="TextBox 9"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13380978" y="1658047"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>8</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="41" name="TextBox 10"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14144069" y="1905000"/>
-                <a:ext cx="331561" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>9</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="42" name="TextBox 11"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11805472" y="1736844"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>11</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="43" name="TextBox 12"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12610728" y="1915907"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>10</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="44" name="TextBox 13"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12797303" y="2800350"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>12</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="45" name="TextBox 14"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12049311" y="2486025"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>13</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="46" name="TextBox 15"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12578228" y="3600451"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>14</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="47" name="TextBox 16"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11965791" y="4089169"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>15</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="48" name="TextBox 17"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11725418" y="5417641"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>16</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="49" name="TextBox 18"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14831745" y="5344735"/>
-                <a:ext cx="464407" cy="353417"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>17</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="50" name="TextBox 19"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14834529" y="3989295"/>
-                <a:ext cx="473478" cy="250357"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>18</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="51" name="TextBox 20"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15495151" y="4264801"/>
-                <a:ext cx="473478" cy="250357"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>19</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="52" name="TextBox 21"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15594852" y="2875430"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>20</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="53" name="TextBox 22"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14979649" y="2533650"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>21</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="54" name="TextBox 23"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11267099" y="2790826"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>22</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="55" name="TextBox 24"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11330423" y="4272912"/>
-                <a:ext cx="424100" cy="308587"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="3">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>23</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="TextBox 7"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14379950" y="3376892"/>
-            <a:ext cx="331561" cy="308587"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>6</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Freeform 56"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11340353" y="3148853"/>
-          <a:ext cx="2868707" cy="2745441"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 78442 w 3485030"/>
-            <a:gd name="connsiteY0" fmla="*/ 1815353 h 2745441"/>
-            <a:gd name="connsiteX1" fmla="*/ 1187824 w 3485030"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2745441"/>
-            <a:gd name="connsiteX2" fmla="*/ 1804147 w 3485030"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 2745441"/>
-            <a:gd name="connsiteX3" fmla="*/ 2330824 w 3485030"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 2745441"/>
-            <a:gd name="connsiteX4" fmla="*/ 3485030 w 3485030"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 2745441"/>
-            <a:gd name="connsiteX5" fmla="*/ 1770530 w 3485030"/>
-            <a:gd name="connsiteY5" fmla="*/ 2711823 h 2745441"/>
-            <a:gd name="connsiteX6" fmla="*/ 649942 w 3485030"/>
-            <a:gd name="connsiteY6" fmla="*/ 2745441 h 2745441"/>
-            <a:gd name="connsiteX7" fmla="*/ 0 w 3485030"/>
-            <a:gd name="connsiteY7" fmla="*/ 1860176 h 2745441"/>
-            <a:gd name="connsiteX8" fmla="*/ 78442 w 3485030"/>
-            <a:gd name="connsiteY8" fmla="*/ 1815353 h 2745441"/>
-            <a:gd name="connsiteX0" fmla="*/ 78442 w 2868707"/>
-            <a:gd name="connsiteY0" fmla="*/ 1815353 h 2745441"/>
-            <a:gd name="connsiteX1" fmla="*/ 1187824 w 2868707"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2745441"/>
-            <a:gd name="connsiteX2" fmla="*/ 1804147 w 2868707"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 2745441"/>
-            <a:gd name="connsiteX3" fmla="*/ 2330824 w 2868707"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 2745441"/>
-            <a:gd name="connsiteX4" fmla="*/ 2868707 w 2868707"/>
-            <a:gd name="connsiteY4" fmla="*/ 885265 h 2745441"/>
-            <a:gd name="connsiteX5" fmla="*/ 1770530 w 2868707"/>
-            <a:gd name="connsiteY5" fmla="*/ 2711823 h 2745441"/>
-            <a:gd name="connsiteX6" fmla="*/ 649942 w 2868707"/>
-            <a:gd name="connsiteY6" fmla="*/ 2745441 h 2745441"/>
-            <a:gd name="connsiteX7" fmla="*/ 0 w 2868707"/>
-            <a:gd name="connsiteY7" fmla="*/ 1860176 h 2745441"/>
-            <a:gd name="connsiteX8" fmla="*/ 78442 w 2868707"/>
-            <a:gd name="connsiteY8" fmla="*/ 1815353 h 2745441"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX7" y="connsiteY7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX8" y="connsiteY8"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="2868707" h="2745441">
-              <a:moveTo>
-                <a:pt x="78442" y="1815353"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1187824" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1804147" y="952500"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2330824" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2868707" y="885265"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1770530" y="2711823"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="649942" y="2745441"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="1860176"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="78442" y="1815353"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="57150"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="it-IT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16293,4927 +11887,6 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.5703125" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" customWidth="1"/>
-    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="62">
-        <f t="shared" ref="B3" si="0">((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*16)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="62">
-        <f>((+P3*COS($O$3)-Q3*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>100</v>
-      </c>
-      <c r="D3" s="62">
-        <f>((P3*SIN($O$3)+Q3*COS($O$3)+$O$9)*$S$4)</f>
-        <v>100</v>
-      </c>
-      <c r="E3" s="62">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N3/3.1416*180)+$O$5)</f>
-        <v>-119.99971938845685</v>
-      </c>
-      <c r="F3" s="61">
-        <v>5</v>
-      </c>
-      <c r="G3" s="64">
-        <f t="shared" ref="G3:G5" si="1">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="39">
-        <v>1</v>
-      </c>
-      <c r="K3" s="12">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13">
-        <v>10</v>
-      </c>
-      <c r="M3" s="84">
-        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O3" s="14">
-        <f>+RADIANS(O5)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="15">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="40">
-        <v>100</v>
-      </c>
-      <c r="R3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="52">
-        <v>1</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="62">
-        <f t="shared" ref="B4" si="2">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*16)</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="62">
-        <f>((+P4*COS($O$3)-Q4*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>116</v>
-      </c>
-      <c r="D4" s="62">
-        <f>((P4*SIN($O$3)+Q4*COS($O$3)+$O$9)*$S$4)</f>
-        <v>109.237604307034</v>
-      </c>
-      <c r="E4" s="62">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N4/3.1416*180)+$O$5)</f>
-        <v>-59.999859694228427</v>
-      </c>
-      <c r="F4" s="61">
-        <v>5</v>
-      </c>
-      <c r="G4" s="64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="41">
-        <v>1</v>
-      </c>
-      <c r="K4" s="10">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5">
-        <v>11</v>
-      </c>
-      <c r="M4" s="84">
-        <f t="shared" ref="M4:M25" si="3">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>109.237604307034</v>
-      </c>
-      <c r="R4" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="54">
-        <v>1</v>
-      </c>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="62">
-        <f t="shared" ref="B5" si="4">((ROUND($L5/10,0))-1)*4+MOD($L5,10)+((J5-1)*16)</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="62">
-        <f>((+P5*COS($O$3)-Q5*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>132</v>
-      </c>
-      <c r="D5" s="62">
-        <f>((P5*SIN($O$3)+Q5*COS($O$3)+$O$9)*$S$4)</f>
-        <v>100</v>
-      </c>
-      <c r="E5" s="62">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N5/3.1416*180)+$O$5)</f>
-        <v>-119.99971938845685</v>
-      </c>
-      <c r="F5" s="61">
-        <v>5</v>
-      </c>
-      <c r="G5" s="64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="41">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>12</v>
-      </c>
-      <c r="M5" s="84">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="N5" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="43">
-        <v>100</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="41">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
-        <v>17</v>
-      </c>
-      <c r="L6" s="5">
-        <v>13</v>
-      </c>
-      <c r="M6" s="83">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="N6" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O6" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="42">
-        <v>148</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>109.237604307034</v>
-      </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="41">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5">
-        <v>20</v>
-      </c>
-      <c r="M7" s="83">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="42">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="43">
-        <v>127.712812921102</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="41">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10">
-        <v>19</v>
-      </c>
-      <c r="L8" s="5">
-        <v>21</v>
-      </c>
-      <c r="M8" s="83">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N8" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="42">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="43">
-        <v>136.95041722813599</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="25"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="41">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10">
-        <v>20</v>
-      </c>
-      <c r="L9" s="5">
-        <v>22</v>
-      </c>
-      <c r="M9" s="83">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="42">
-        <v>164</v>
-      </c>
-      <c r="Q9" s="43">
-        <v>155.425625842204</v>
-      </c>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="25"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="41">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10">
-        <v>21</v>
-      </c>
-      <c r="L10" s="5">
-        <v>23</v>
-      </c>
-      <c r="M10" s="83">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="42">
-        <v>148</v>
-      </c>
-      <c r="Q10" s="43">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="62">
-        <f t="shared" ref="B11:B16" si="5">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
-        <v>12</v>
-      </c>
-      <c r="C11" s="62">
-        <f t="shared" ref="C11:C20" si="6">((+P11*COS($O$3)-Q11*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>116</v>
-      </c>
-      <c r="D11" s="62">
-        <f t="shared" ref="D11:D20" si="7">((P11*SIN($O$3)+Q11*COS($O$3)+$O$9)*$S$4)</f>
-        <v>127.712812921102</v>
-      </c>
-      <c r="E11" s="62">
-        <f t="shared" ref="E11:E20" si="8">IF(($S$3*$S$4)=1,1,-1)*(($N11/3.1416*180)+$O$5)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="61">
-        <v>5</v>
-      </c>
-      <c r="G11" s="64">
-        <f t="shared" ref="G11:G16" si="9">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="41">
-        <v>1</v>
-      </c>
-      <c r="K11" s="10">
-        <v>4</v>
-      </c>
-      <c r="L11" s="5">
-        <v>40</v>
-      </c>
-      <c r="M11" s="84">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="56">
-        <v>0</v>
-      </c>
-      <c r="P11" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="43">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="62">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="C12" s="62">
-        <f t="shared" si="6"/>
-        <v>132</v>
-      </c>
-      <c r="D12" s="62">
-        <f t="shared" si="7"/>
-        <v>136.95041722813599</v>
-      </c>
-      <c r="E12" s="62">
-        <f t="shared" si="8"/>
-        <v>-59.999859694228427</v>
-      </c>
-      <c r="F12" s="61">
-        <v>5</v>
-      </c>
-      <c r="G12" s="64">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="41">
-        <v>1</v>
-      </c>
-      <c r="K12" s="10">
-        <v>5</v>
-      </c>
-      <c r="L12" s="5">
-        <v>41</v>
-      </c>
-      <c r="M12" s="84">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="N12" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q12" s="43">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="62">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="C13" s="62">
-        <f t="shared" si="6"/>
-        <v>132</v>
-      </c>
-      <c r="D13" s="62">
-        <f t="shared" si="7"/>
-        <v>155.425625842204</v>
-      </c>
-      <c r="E13" s="62">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="61">
-        <v>5</v>
-      </c>
-      <c r="G13" s="64">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="41">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
-        <v>6</v>
-      </c>
-      <c r="L13" s="5">
-        <v>30</v>
-      </c>
-      <c r="M13" s="84">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q13" s="43">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="62">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="C14" s="62">
-        <f t="shared" si="6"/>
-        <v>116</v>
-      </c>
-      <c r="D14" s="62">
-        <f t="shared" si="7"/>
-        <v>164.66323014923799</v>
-      </c>
-      <c r="E14" s="62">
-        <f t="shared" si="8"/>
-        <v>59.999859694228427</v>
-      </c>
-      <c r="F14" s="61">
-        <v>5</v>
-      </c>
-      <c r="G14" s="64">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="41">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10">
-        <v>7</v>
-      </c>
-      <c r="L14" s="5">
-        <v>31</v>
-      </c>
-      <c r="M14" s="84">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="43">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="62">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="62">
-        <f t="shared" si="6"/>
-        <v>116</v>
-      </c>
-      <c r="D15" s="62">
-        <f t="shared" si="7"/>
-        <v>183.138438763306</v>
-      </c>
-      <c r="E15" s="62">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="61">
-        <v>5</v>
-      </c>
-      <c r="G15" s="64">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="41">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10">
-        <v>8</v>
-      </c>
-      <c r="L15" s="5">
-        <v>22</v>
-      </c>
-      <c r="M15" s="84">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="43">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="62">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="62">
-        <f t="shared" si="6"/>
-        <v>132</v>
-      </c>
-      <c r="D16" s="62">
-        <f t="shared" si="7"/>
-        <v>192.37604307033999</v>
-      </c>
-      <c r="E16" s="62">
-        <f t="shared" si="8"/>
-        <v>-59.999859694228427</v>
-      </c>
-      <c r="F16" s="61">
-        <v>5</v>
-      </c>
-      <c r="G16" s="64">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="41">
-        <v>1</v>
-      </c>
-      <c r="K16" s="10">
-        <v>9</v>
-      </c>
-      <c r="L16" s="5">
-        <v>23</v>
-      </c>
-      <c r="M16" s="84">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N16" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q16" s="43">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="62">
-        <f t="shared" ref="B17" si="10">((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*16)</f>
-        <v>3</v>
-      </c>
-      <c r="C17" s="62">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="D17" s="62">
-        <f t="shared" si="7"/>
-        <v>192.37604307033999</v>
-      </c>
-      <c r="E17" s="62">
-        <f t="shared" si="8"/>
-        <v>59.999859694228427</v>
-      </c>
-      <c r="F17" s="61">
-        <v>5</v>
-      </c>
-      <c r="G17" s="64">
-        <f t="shared" ref="G17" si="11">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="41">
-        <v>1</v>
-      </c>
-      <c r="K17" s="10">
-        <v>10</v>
-      </c>
-      <c r="L17" s="5">
-        <v>13</v>
-      </c>
-      <c r="M17" s="84">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="42">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="43">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="62">
-        <f t="shared" ref="B18" si="12">((ROUND($L18/10,0))-1)*4+MOD($L18,10)+((J18-1)*16)</f>
-        <v>4</v>
-      </c>
-      <c r="C18" s="62">
-        <f t="shared" si="6"/>
-        <v>84</v>
-      </c>
-      <c r="D18" s="62">
-        <f t="shared" si="7"/>
-        <v>183.138438763306</v>
-      </c>
-      <c r="E18" s="62">
-        <f t="shared" si="8"/>
-        <v>119.99971938845685</v>
-      </c>
-      <c r="F18" s="61">
-        <v>5</v>
-      </c>
-      <c r="G18" s="64">
-        <f t="shared" ref="G18" si="13">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="41">
-        <v>1</v>
-      </c>
-      <c r="K18" s="10">
-        <v>11</v>
-      </c>
-      <c r="L18" s="5">
-        <v>20</v>
-      </c>
-      <c r="M18" s="84">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="42">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="43">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="62">
-        <f t="shared" ref="B19:B20" si="14">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
-        <v>10</v>
-      </c>
-      <c r="C19" s="62">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="D19" s="62">
-        <f t="shared" si="7"/>
-        <v>155.425625842204</v>
-      </c>
-      <c r="E19" s="62">
-        <f t="shared" si="8"/>
-        <v>119.99971938845685</v>
-      </c>
-      <c r="F19" s="61">
-        <v>5</v>
-      </c>
-      <c r="G19" s="64">
-        <f t="shared" ref="G19:G20" si="15">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="41">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10">
-        <v>12</v>
-      </c>
-      <c r="L19" s="5">
-        <v>32</v>
-      </c>
-      <c r="M19" s="84">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="42">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="43">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="62">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="C20" s="62">
-        <f t="shared" si="6"/>
-        <v>84</v>
-      </c>
-      <c r="D20" s="62">
-        <f t="shared" si="7"/>
-        <v>164.66323014923799</v>
-      </c>
-      <c r="E20" s="62">
-        <f t="shared" si="8"/>
-        <v>59.999859694228427</v>
-      </c>
-      <c r="F20" s="61">
-        <v>5</v>
-      </c>
-      <c r="G20" s="64">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="41">
-        <v>1</v>
-      </c>
-      <c r="K20" s="10">
-        <v>13</v>
-      </c>
-      <c r="L20" s="5">
-        <v>21</v>
-      </c>
-      <c r="M20" s="84">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="42">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="43">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="25"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="41">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10">
-        <v>22</v>
-      </c>
-      <c r="L21" s="5">
-        <v>43</v>
-      </c>
-      <c r="M21" s="83">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="N21" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="42">
-        <v>68</v>
-      </c>
-      <c r="Q21" s="43">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="25"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="41">
-        <v>1</v>
-      </c>
-      <c r="K22" s="10">
-        <v>23</v>
-      </c>
-      <c r="L22" s="5">
-        <v>10</v>
-      </c>
-      <c r="M22" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="42">
-        <v>68</v>
-      </c>
-      <c r="Q22" s="43">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="62">
-        <f t="shared" ref="B23:B25" si="16">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
-        <v>11</v>
-      </c>
-      <c r="C23" s="62">
-        <f>((+P23*COS($O$3)-Q23*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>100</v>
-      </c>
-      <c r="D23" s="62">
-        <f>((P23*SIN($O$3)+Q23*COS($O$3)+$O$9)*$S$4)</f>
-        <v>136.95041722813599</v>
-      </c>
-      <c r="E23" s="62">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N23/3.1416*180)+$O$5)</f>
-        <v>179.99957908268468</v>
-      </c>
-      <c r="F23" s="61">
-        <v>5</v>
-      </c>
-      <c r="G23" s="64">
-        <f t="shared" ref="G23:G25" si="17">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="41">
-        <v>1</v>
-      </c>
-      <c r="K23" s="10">
-        <v>14</v>
-      </c>
-      <c r="L23" s="5">
-        <v>33</v>
-      </c>
-      <c r="M23" s="84">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="N23" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="42">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="43">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="62">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="C24" s="62">
-        <f>((+P24*COS($O$3)-Q24*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>84</v>
-      </c>
-      <c r="D24" s="62">
-        <f>((P24*SIN($O$3)+Q24*COS($O$3)+$O$9)*$S$4)</f>
-        <v>127.712812921102</v>
-      </c>
-      <c r="E24" s="62">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N24/3.1416*180)+$O$5)</f>
-        <v>119.99971938845685</v>
-      </c>
-      <c r="F24" s="61">
-        <v>5</v>
-      </c>
-      <c r="G24" s="64">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="41">
-        <v>1</v>
-      </c>
-      <c r="K24" s="10">
-        <v>15</v>
-      </c>
-      <c r="L24" s="5">
-        <v>42</v>
-      </c>
-      <c r="M24" s="84">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="N24" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="42">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="43">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="62">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="C25" s="62">
-        <f>((+P25*COS($O$3)-Q25*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>84</v>
-      </c>
-      <c r="D25" s="62">
-        <f>((P25*SIN($O$3)+Q25*COS($O$3)+$O$9)*$S$4)</f>
-        <v>109.237604307034</v>
-      </c>
-      <c r="E25" s="62">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N25/3.1416*180)+$O$5)</f>
-        <v>179.99957908268468</v>
-      </c>
-      <c r="F25" s="61">
-        <v>5</v>
-      </c>
-      <c r="G25" s="64">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="41">
-        <v>1</v>
-      </c>
-      <c r="K25" s="45">
-        <v>16</v>
-      </c>
-      <c r="L25" s="46">
-        <v>43</v>
-      </c>
-      <c r="M25" s="84">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="N25" s="47">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49">
-        <v>84</v>
-      </c>
-      <c r="Q25" s="50">
-        <v>109.237604307034</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-    </row>
-    <row r="34" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-    </row>
-    <row r="38" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-    </row>
-    <row r="39" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-    </row>
-    <row r="40" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-    </row>
-    <row r="41" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-    </row>
-    <row r="42" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-    </row>
-    <row r="43" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-    </row>
-    <row r="44" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-    </row>
-    <row r="45" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G45" s="7"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-    </row>
-    <row r="46" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G46" s="7"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-    </row>
-    <row r="47" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G47" s="7"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-    </row>
-    <row r="48" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-    </row>
-    <row r="49" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G49" s="7"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-    </row>
-    <row r="50" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-    </row>
-    <row r="51" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G51" s="7"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-    </row>
-    <row r="52" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G52" s="7"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-    </row>
-    <row r="53" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G53" s="7"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-    </row>
-    <row r="54" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G54" s="7"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-    </row>
-    <row r="55" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U55"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="39">
-        <v>2</v>
-      </c>
-      <c r="K3" s="12">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13">
-        <v>10</v>
-      </c>
-      <c r="M3" s="83">
-        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O3" s="14">
-        <f>+RADIANS(O5)</f>
-        <v>2.0943951023931953</v>
-      </c>
-      <c r="P3" s="15">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="40">
-        <v>100</v>
-      </c>
-      <c r="R3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="52">
-        <v>1</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="39">
-        <v>2</v>
-      </c>
-      <c r="K4" s="10">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5">
-        <v>11</v>
-      </c>
-      <c r="M4" s="83">
-        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>109.237604307034</v>
-      </c>
-      <c r="R4" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="54">
-        <v>1</v>
-      </c>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="39">
-        <v>2</v>
-      </c>
-      <c r="K5" s="10">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>12</v>
-      </c>
-      <c r="M5" s="83">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N5" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O5" s="3">
-        <v>120</v>
-      </c>
-      <c r="P5" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="43">
-        <v>100</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="39">
-        <v>2</v>
-      </c>
-      <c r="K6" s="10">
-        <v>17</v>
-      </c>
-      <c r="L6" s="5">
-        <v>13</v>
-      </c>
-      <c r="M6" s="83">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N6" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O6" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="42">
-        <v>148</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>109.237604307034</v>
-      </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="39">
-        <v>2</v>
-      </c>
-      <c r="K7" s="10">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5">
-        <v>20</v>
-      </c>
-      <c r="M7" s="83">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>365</v>
-      </c>
-      <c r="P7" s="42">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="43">
-        <v>127.712812921102</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="39">
-        <v>2</v>
-      </c>
-      <c r="K8" s="10">
-        <v>19</v>
-      </c>
-      <c r="L8" s="5">
-        <v>21</v>
-      </c>
-      <c r="M8" s="83">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N8" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="42">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="43">
-        <v>136.95041722813599</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="25"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="39">
-        <v>2</v>
-      </c>
-      <c r="K9" s="10">
-        <v>20</v>
-      </c>
-      <c r="L9" s="5">
-        <v>22</v>
-      </c>
-      <c r="M9" s="83">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>119</v>
-      </c>
-      <c r="P9" s="42">
-        <v>164</v>
-      </c>
-      <c r="Q9" s="43">
-        <v>155.425625842204</v>
-      </c>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="25"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="39">
-        <v>2</v>
-      </c>
-      <c r="K10" s="10">
-        <v>21</v>
-      </c>
-      <c r="L10" s="5">
-        <v>23</v>
-      </c>
-      <c r="M10" s="83">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="42">
-        <v>148</v>
-      </c>
-      <c r="Q10" s="43">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="64"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="39">
-        <v>2</v>
-      </c>
-      <c r="K11" s="10">
-        <v>4</v>
-      </c>
-      <c r="L11" s="5">
-        <v>40</v>
-      </c>
-      <c r="M11" s="83">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="56">
-        <v>16</v>
-      </c>
-      <c r="P11" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="43">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="64"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="39">
-        <v>2</v>
-      </c>
-      <c r="K12" s="10">
-        <v>5</v>
-      </c>
-      <c r="L12" s="5">
-        <v>41</v>
-      </c>
-      <c r="M12" s="83">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N12" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q12" s="43">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="64"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="39">
-        <v>2</v>
-      </c>
-      <c r="K13" s="10">
-        <v>6</v>
-      </c>
-      <c r="L13" s="5">
-        <v>30</v>
-      </c>
-      <c r="M13" s="83">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q13" s="43">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="62">
-        <f t="shared" ref="B14" si="1">((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*16)</f>
-        <v>25</v>
-      </c>
-      <c r="C14" s="62">
-        <f>((+P14*COS($O$3)-Q14*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>164.39745962155624</v>
-      </c>
-      <c r="D14" s="62">
-        <f>((P14*SIN($O$3)+Q14*COS($O$3)+$O$9)*$S$4)</f>
-        <v>137.12733176437592</v>
-      </c>
-      <c r="E14" s="62">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N14/3.1416*180)+$O$5)</f>
-        <v>179.99985969422843</v>
-      </c>
-      <c r="F14" s="61">
-        <v>5</v>
-      </c>
-      <c r="G14" s="64">
-        <f t="shared" ref="G14" si="2">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="39">
-        <v>2</v>
-      </c>
-      <c r="K14" s="10">
-        <v>7</v>
-      </c>
-      <c r="L14" s="5">
-        <v>31</v>
-      </c>
-      <c r="M14" s="84">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="43">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="62">
-        <f t="shared" ref="B15" si="3">((ROUND($L15/10,0))-1)*4+MOD($L15,10)+((J15-1)*16)</f>
-        <v>22</v>
-      </c>
-      <c r="C15" s="62">
-        <f>((+P15*COS($O$3)-Q15*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>148.39745962155624</v>
-      </c>
-      <c r="D15" s="62">
-        <f>((P15*SIN($O$3)+Q15*COS($O$3)+$O$9)*$S$4)</f>
-        <v>127.88972745734193</v>
-      </c>
-      <c r="E15" s="62">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N15/3.1416*180)+$O$5)</f>
-        <v>120</v>
-      </c>
-      <c r="F15" s="61">
-        <v>5</v>
-      </c>
-      <c r="G15" s="64">
-        <f t="shared" ref="G15" si="4">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="39">
-        <v>2</v>
-      </c>
-      <c r="K15" s="10">
-        <v>8</v>
-      </c>
-      <c r="L15" s="5">
-        <v>22</v>
-      </c>
-      <c r="M15" s="84">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="43">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="25"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="39">
-        <v>2</v>
-      </c>
-      <c r="K16" s="10">
-        <v>9</v>
-      </c>
-      <c r="L16" s="5">
-        <v>23</v>
-      </c>
-      <c r="M16" s="83">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N16" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q16" s="43">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="62">
-        <f t="shared" ref="B17:B18" si="5">((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*16)</f>
-        <v>19</v>
-      </c>
-      <c r="C17" s="62">
-        <f t="shared" ref="C17:C24" si="6">((+P17*COS($O$3)-Q17*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>148.39745962155627</v>
-      </c>
-      <c r="D17" s="62">
-        <f t="shared" ref="D17:D24" si="7">((P17*SIN($O$3)+Q17*COS($O$3)+$O$9)*$S$4)</f>
-        <v>109.41451884327392</v>
-      </c>
-      <c r="E17" s="62">
-        <f t="shared" ref="E17:E24" si="8">IF(($S$3*$S$4)=1,1,-1)*(($N17/3.1416*180)+$O$5)</f>
-        <v>179.99985969422843</v>
-      </c>
-      <c r="F17" s="61">
-        <v>5</v>
-      </c>
-      <c r="G17" s="64">
-        <f t="shared" ref="G17" si="9">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="39">
-        <v>2</v>
-      </c>
-      <c r="K17" s="10">
-        <v>10</v>
-      </c>
-      <c r="L17" s="5">
-        <v>13</v>
-      </c>
-      <c r="M17" s="84">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="42">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="43">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="62">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="C18" s="62">
-        <f t="shared" si="6"/>
-        <v>164.39745962155624</v>
-      </c>
-      <c r="D18" s="62">
-        <f t="shared" si="7"/>
-        <v>100.17691453623989</v>
-      </c>
-      <c r="E18" s="62">
-        <f t="shared" si="8"/>
-        <v>239.99971938845687</v>
-      </c>
-      <c r="F18" s="61">
-        <v>5</v>
-      </c>
-      <c r="G18" s="64">
-        <f t="shared" ref="G18:G24" si="10">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="39">
-        <v>2</v>
-      </c>
-      <c r="K18" s="10">
-        <v>11</v>
-      </c>
-      <c r="L18" s="5">
-        <v>20</v>
-      </c>
-      <c r="M18" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="42">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="43">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="62">
-        <f t="shared" ref="B19:B20" si="11">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
-        <v>26</v>
-      </c>
-      <c r="C19" s="62">
-        <f t="shared" si="6"/>
-        <v>180.39745962155621</v>
-      </c>
-      <c r="D19" s="62">
-        <f t="shared" si="7"/>
-        <v>127.88972745734191</v>
-      </c>
-      <c r="E19" s="62">
-        <f t="shared" si="8"/>
-        <v>239.99971938845687</v>
-      </c>
-      <c r="F19" s="61">
-        <v>5</v>
-      </c>
-      <c r="G19" s="64">
-        <f t="shared" ref="G19" si="12">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="39">
-        <v>2</v>
-      </c>
-      <c r="K19" s="10">
-        <v>12</v>
-      </c>
-      <c r="L19" s="5">
-        <v>32</v>
-      </c>
-      <c r="M19" s="84">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="42">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="43">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="62">
-        <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-      <c r="C20" s="62">
-        <f t="shared" si="6"/>
-        <v>180.39745962155624</v>
-      </c>
-      <c r="D20" s="62">
-        <f t="shared" si="7"/>
-        <v>109.4145188432739</v>
-      </c>
-      <c r="E20" s="62">
-        <f t="shared" si="8"/>
-        <v>179.99985969422843</v>
-      </c>
-      <c r="F20" s="61">
-        <v>5</v>
-      </c>
-      <c r="G20" s="64">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="39">
-        <v>2</v>
-      </c>
-      <c r="K20" s="10">
-        <v>13</v>
-      </c>
-      <c r="L20" s="5">
-        <v>21</v>
-      </c>
-      <c r="M20" s="84">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="42">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="43">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="62">
-        <f t="shared" ref="B21:B22" si="13">((ROUND($L21/10,0))-1)*4+MOD($L21,10)+((J21-1)*16)</f>
-        <v>31</v>
-      </c>
-      <c r="C21" s="62">
-        <f t="shared" si="6"/>
-        <v>196.39745962155621</v>
-      </c>
-      <c r="D21" s="62">
-        <f t="shared" si="7"/>
-        <v>100.17691453623986</v>
-      </c>
-      <c r="E21" s="62">
-        <f t="shared" si="8"/>
-        <v>239.99971938845687</v>
-      </c>
-      <c r="F21" s="61">
-        <v>5</v>
-      </c>
-      <c r="G21" s="64">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="39">
-        <v>2</v>
-      </c>
-      <c r="K21" s="10">
-        <v>22</v>
-      </c>
-      <c r="L21" s="5">
-        <v>43</v>
-      </c>
-      <c r="M21" s="84">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N21" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="42">
-        <v>68</v>
-      </c>
-      <c r="Q21" s="43">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="62">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="C22" s="62">
-        <f t="shared" si="6"/>
-        <v>212.39745962155621</v>
-      </c>
-      <c r="D22" s="62">
-        <f t="shared" si="7"/>
-        <v>109.41451884327387</v>
-      </c>
-      <c r="E22" s="62">
-        <f t="shared" si="8"/>
-        <v>299.9995790826847</v>
-      </c>
-      <c r="F22" s="61">
-        <v>5</v>
-      </c>
-      <c r="G22" s="64">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="39">
-        <v>2</v>
-      </c>
-      <c r="K22" s="10">
-        <v>23</v>
-      </c>
-      <c r="L22" s="5">
-        <v>10</v>
-      </c>
-      <c r="M22" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="42">
-        <v>68</v>
-      </c>
-      <c r="Q22" s="43">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="62">
-        <f t="shared" ref="B23:B24" si="14">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
-        <v>27</v>
-      </c>
-      <c r="C23" s="62">
-        <f t="shared" si="6"/>
-        <v>196.39745962155621</v>
-      </c>
-      <c r="D23" s="62">
-        <f t="shared" si="7"/>
-        <v>137.12733176437592</v>
-      </c>
-      <c r="E23" s="62">
-        <f t="shared" si="8"/>
-        <v>299.9995790826847</v>
-      </c>
-      <c r="F23" s="61">
-        <v>5</v>
-      </c>
-      <c r="G23" s="64">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="39">
-        <v>2</v>
-      </c>
-      <c r="K23" s="10">
-        <v>14</v>
-      </c>
-      <c r="L23" s="5">
-        <v>33</v>
-      </c>
-      <c r="M23" s="84">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N23" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="42">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="43">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="62">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="C24" s="62">
-        <f t="shared" si="6"/>
-        <v>212.39745962155618</v>
-      </c>
-      <c r="D24" s="62">
-        <f t="shared" si="7"/>
-        <v>127.88972745734188</v>
-      </c>
-      <c r="E24" s="62">
-        <f t="shared" si="8"/>
-        <v>239.99971938845687</v>
-      </c>
-      <c r="F24" s="61">
-        <v>5</v>
-      </c>
-      <c r="G24" s="64">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="39">
-        <v>2</v>
-      </c>
-      <c r="K24" s="10">
-        <v>15</v>
-      </c>
-      <c r="L24" s="5">
-        <v>42</v>
-      </c>
-      <c r="M24" s="84">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N24" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="42">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="43">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="64"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="39">
-        <v>2</v>
-      </c>
-      <c r="K25" s="45">
-        <v>16</v>
-      </c>
-      <c r="L25" s="46">
-        <v>43</v>
-      </c>
-      <c r="M25" s="83">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N25" s="47">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49">
-        <v>84</v>
-      </c>
-      <c r="Q25" s="50">
-        <v>109.237604307034</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O30" s="57"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M49" s="8"/>
-    </row>
-    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M50" s="8"/>
-    </row>
-    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M51" s="8"/>
-    </row>
-    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M52" s="8"/>
-    </row>
-    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M55" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U55"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="39">
-        <v>3</v>
-      </c>
-      <c r="K3" s="12">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13">
-        <v>10</v>
-      </c>
-      <c r="M3" s="83">
-        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O3" s="14">
-        <f>+RADIANS(O5)</f>
-        <v>2.0943951023931953</v>
-      </c>
-      <c r="P3" s="15">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="40">
-        <v>100</v>
-      </c>
-      <c r="R3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="52">
-        <v>1</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="62">
-        <f t="shared" ref="B4:B13" si="0">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*16)</f>
-        <v>33</v>
-      </c>
-      <c r="C4" s="62">
-        <f t="shared" ref="C4:C13" si="1">((+P4*COS($O$3)-Q4*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>212.39745962155615</v>
-      </c>
-      <c r="D4" s="62">
-        <f t="shared" ref="D4:D13" si="2">((P4*SIN($O$3)+Q4*COS($O$3)+$O$9)*$S$4)</f>
-        <v>163.84014468547792</v>
-      </c>
-      <c r="E4" s="62">
-        <f t="shared" ref="E4:E13" si="3">IF(($S$3*$S$4)=1,1,-1)*(($N4/3.1416*180)+$O$5)</f>
-        <v>60.000140305771573</v>
-      </c>
-      <c r="F4" s="61">
-        <v>5</v>
-      </c>
-      <c r="G4" s="64">
-        <f t="shared" ref="G4:G10" si="4">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="39">
-        <v>3</v>
-      </c>
-      <c r="K4" s="10">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5">
-        <v>11</v>
-      </c>
-      <c r="M4" s="84">
-        <f t="shared" ref="M4:M25" si="5">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>109.237604307034</v>
-      </c>
-      <c r="R4" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="54">
-        <v>1</v>
-      </c>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="62">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C5" s="62">
-        <f t="shared" si="1"/>
-        <v>212.39745962155615</v>
-      </c>
-      <c r="D5" s="62">
-        <f t="shared" si="2"/>
-        <v>182.31535329954593</v>
-      </c>
-      <c r="E5" s="62">
-        <f t="shared" si="3"/>
-        <v>2.80611543146847E-4</v>
-      </c>
-      <c r="F5" s="61">
-        <v>5</v>
-      </c>
-      <c r="G5" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="39">
-        <v>3</v>
-      </c>
-      <c r="K5" s="10">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>12</v>
-      </c>
-      <c r="M5" s="84">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="N5" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O5" s="3">
-        <v>120</v>
-      </c>
-      <c r="P5" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="43">
-        <v>100</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="62">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C6" s="62">
-        <f t="shared" si="1"/>
-        <v>196.39745962155615</v>
-      </c>
-      <c r="D6" s="62">
-        <f t="shared" si="2"/>
-        <v>191.55295760657995</v>
-      </c>
-      <c r="E6" s="62">
-        <f t="shared" si="3"/>
-        <v>60.000140305771573</v>
-      </c>
-      <c r="F6" s="61">
-        <v>5</v>
-      </c>
-      <c r="G6" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="39">
-        <v>3</v>
-      </c>
-      <c r="K6" s="10">
-        <v>17</v>
-      </c>
-      <c r="L6" s="5">
-        <v>13</v>
-      </c>
-      <c r="M6" s="84">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="N6" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O6" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="42">
-        <v>148</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>109.237604307034</v>
-      </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="62">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C7" s="62">
-        <f t="shared" si="1"/>
-        <v>180.39745962155621</v>
-      </c>
-      <c r="D7" s="62">
-        <f t="shared" si="2"/>
-        <v>182.31535329954596</v>
-      </c>
-      <c r="E7" s="62">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="F7" s="61">
-        <v>5</v>
-      </c>
-      <c r="G7" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="39">
-        <v>3</v>
-      </c>
-      <c r="K7" s="10">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5">
-        <v>20</v>
-      </c>
-      <c r="M7" s="84">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>365</v>
-      </c>
-      <c r="P7" s="42">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="43">
-        <v>127.712812921102</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="62">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C8" s="62">
-        <f t="shared" si="1"/>
-        <v>164.39745962155621</v>
-      </c>
-      <c r="D8" s="62">
-        <f t="shared" si="2"/>
-        <v>191.55295760657998</v>
-      </c>
-      <c r="E8" s="62">
-        <f t="shared" si="3"/>
-        <v>60.000140305771573</v>
-      </c>
-      <c r="F8" s="61">
-        <v>5</v>
-      </c>
-      <c r="G8" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="39">
-        <v>3</v>
-      </c>
-      <c r="K8" s="10">
-        <v>19</v>
-      </c>
-      <c r="L8" s="5">
-        <v>21</v>
-      </c>
-      <c r="M8" s="84">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="N8" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="42">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="43">
-        <v>136.95041722813599</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="62">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C9" s="62">
-        <f t="shared" si="1"/>
-        <v>148.39745962155621</v>
-      </c>
-      <c r="D9" s="62">
-        <f t="shared" si="2"/>
-        <v>182.31535329954599</v>
-      </c>
-      <c r="E9" s="62">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="F9" s="61">
-        <v>5</v>
-      </c>
-      <c r="G9" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="39">
-        <v>3</v>
-      </c>
-      <c r="K9" s="10">
-        <v>20</v>
-      </c>
-      <c r="L9" s="5">
-        <v>22</v>
-      </c>
-      <c r="M9" s="84">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>118</v>
-      </c>
-      <c r="P9" s="42">
-        <v>164</v>
-      </c>
-      <c r="Q9" s="43">
-        <v>155.425625842204</v>
-      </c>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="62">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C10" s="62">
-        <f t="shared" si="1"/>
-        <v>148.39745962155624</v>
-      </c>
-      <c r="D10" s="62">
-        <f t="shared" si="2"/>
-        <v>163.84014468547798</v>
-      </c>
-      <c r="E10" s="62">
-        <f t="shared" si="3"/>
-        <v>179.99985969422843</v>
-      </c>
-      <c r="F10" s="61">
-        <v>5</v>
-      </c>
-      <c r="G10" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="39">
-        <v>3</v>
-      </c>
-      <c r="K10" s="10">
-        <v>21</v>
-      </c>
-      <c r="L10" s="5">
-        <v>23</v>
-      </c>
-      <c r="M10" s="84">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="42">
-        <v>148</v>
-      </c>
-      <c r="Q10" s="43">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="62">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C11" s="62">
-        <f t="shared" si="1"/>
-        <v>196.39745962155621</v>
-      </c>
-      <c r="D11" s="62">
-        <f t="shared" si="2"/>
-        <v>154.6025403784439</v>
-      </c>
-      <c r="E11" s="62">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="F11" s="61">
-        <v>5</v>
-      </c>
-      <c r="G11" s="64">
-        <f t="shared" ref="G11:G13" si="6">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="39">
-        <v>3</v>
-      </c>
-      <c r="K11" s="10">
-        <v>4</v>
-      </c>
-      <c r="L11" s="5">
-        <v>40</v>
-      </c>
-      <c r="M11" s="84">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="56">
-        <f>16*2</f>
-        <v>32</v>
-      </c>
-      <c r="P11" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="43">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="62">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C12" s="62">
-        <f t="shared" si="1"/>
-        <v>180.39745962155621</v>
-      </c>
-      <c r="D12" s="62">
-        <f t="shared" si="2"/>
-        <v>163.84014468547792</v>
-      </c>
-      <c r="E12" s="62">
-        <f t="shared" si="3"/>
-        <v>60.000140305771573</v>
-      </c>
-      <c r="F12" s="61">
-        <v>5</v>
-      </c>
-      <c r="G12" s="64">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="39">
-        <v>3</v>
-      </c>
-      <c r="K12" s="10">
-        <v>5</v>
-      </c>
-      <c r="L12" s="5">
-        <v>41</v>
-      </c>
-      <c r="M12" s="84">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="N12" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q12" s="43">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="62">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C13" s="62">
-        <f t="shared" si="1"/>
-        <v>164.39745962155621</v>
-      </c>
-      <c r="D13" s="62">
-        <f t="shared" si="2"/>
-        <v>154.60254037844393</v>
-      </c>
-      <c r="E13" s="62">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="F13" s="61">
-        <v>5</v>
-      </c>
-      <c r="G13" s="64">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="39">
-        <v>3</v>
-      </c>
-      <c r="K13" s="10">
-        <v>6</v>
-      </c>
-      <c r="L13" s="5">
-        <v>30</v>
-      </c>
-      <c r="M13" s="84">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q13" s="43">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="25"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="39">
-        <v>3</v>
-      </c>
-      <c r="K14" s="10">
-        <v>7</v>
-      </c>
-      <c r="L14" s="5">
-        <v>31</v>
-      </c>
-      <c r="M14" s="83">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="43">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="25"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="39">
-        <v>3</v>
-      </c>
-      <c r="K15" s="10">
-        <v>8</v>
-      </c>
-      <c r="L15" s="5">
-        <v>22</v>
-      </c>
-      <c r="M15" s="83">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="43">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="25"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="39">
-        <v>3</v>
-      </c>
-      <c r="K16" s="10">
-        <v>9</v>
-      </c>
-      <c r="L16" s="5">
-        <v>23</v>
-      </c>
-      <c r="M16" s="83">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="N16" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q16" s="43">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="25"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="39">
-        <v>3</v>
-      </c>
-      <c r="K17" s="10">
-        <v>10</v>
-      </c>
-      <c r="L17" s="5">
-        <v>13</v>
-      </c>
-      <c r="M17" s="83">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="42">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="43">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="25"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="39">
-        <v>3</v>
-      </c>
-      <c r="K18" s="10">
-        <v>11</v>
-      </c>
-      <c r="L18" s="5">
-        <v>20</v>
-      </c>
-      <c r="M18" s="83">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="42">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="43">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="25"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="39">
-        <v>3</v>
-      </c>
-      <c r="K19" s="10">
-        <v>12</v>
-      </c>
-      <c r="L19" s="5">
-        <v>32</v>
-      </c>
-      <c r="M19" s="83">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="42">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="43">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="25"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="39">
-        <v>3</v>
-      </c>
-      <c r="K20" s="10">
-        <v>13</v>
-      </c>
-      <c r="L20" s="5">
-        <v>21</v>
-      </c>
-      <c r="M20" s="83">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="42">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="43">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="25"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="39">
-        <v>3</v>
-      </c>
-      <c r="K21" s="10">
-        <v>22</v>
-      </c>
-      <c r="L21" s="5">
-        <v>43</v>
-      </c>
-      <c r="M21" s="83">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="N21" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="42">
-        <v>68</v>
-      </c>
-      <c r="Q21" s="43">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="25"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="39">
-        <v>3</v>
-      </c>
-      <c r="K22" s="10">
-        <v>23</v>
-      </c>
-      <c r="L22" s="5">
-        <v>10</v>
-      </c>
-      <c r="M22" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="42">
-        <v>68</v>
-      </c>
-      <c r="Q22" s="43">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="25"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="39">
-        <v>3</v>
-      </c>
-      <c r="K23" s="10">
-        <v>14</v>
-      </c>
-      <c r="L23" s="5">
-        <v>33</v>
-      </c>
-      <c r="M23" s="83">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="N23" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="42">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="43">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="25"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="39">
-        <v>3</v>
-      </c>
-      <c r="K24" s="10">
-        <v>15</v>
-      </c>
-      <c r="L24" s="5">
-        <v>42</v>
-      </c>
-      <c r="M24" s="83">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="N24" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="42">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="43">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="39">
-        <v>3</v>
-      </c>
-      <c r="K25" s="45">
-        <v>16</v>
-      </c>
-      <c r="L25" s="46">
-        <v>43</v>
-      </c>
-      <c r="M25" s="83">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="N25" s="47">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49">
-        <v>84</v>
-      </c>
-      <c r="Q25" s="50">
-        <v>109.237604307034</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M49" s="8"/>
-    </row>
-    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M50" s="8"/>
-    </row>
-    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M51" s="8"/>
-    </row>
-    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M52" s="8"/>
-    </row>
-    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M55" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U55"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:M20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="39">
-        <v>4</v>
-      </c>
-      <c r="K3" s="12">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13">
-        <v>10</v>
-      </c>
-      <c r="M3" s="83">
-        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O3" s="14">
-        <f>+RADIANS(O5)</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="P3" s="15">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="40">
-        <v>100</v>
-      </c>
-      <c r="R3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="52">
-        <v>1</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="41">
-        <v>4</v>
-      </c>
-      <c r="K4" s="10">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5">
-        <v>11</v>
-      </c>
-      <c r="M4" s="83">
-        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>109.237604307034</v>
-      </c>
-      <c r="R4" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="54">
-        <v>1</v>
-      </c>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="39">
-        <v>4</v>
-      </c>
-      <c r="K5" s="10">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>12</v>
-      </c>
-      <c r="M5" s="83">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N5" s="6">
-        <v>-2.0943951023932001</v>
-      </c>
-      <c r="O5" s="3">
-        <v>180</v>
-      </c>
-      <c r="P5" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="43">
-        <v>100</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="41">
-        <v>4</v>
-      </c>
-      <c r="K6" s="10">
-        <v>17</v>
-      </c>
-      <c r="L6" s="5">
-        <v>13</v>
-      </c>
-      <c r="M6" s="83">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N6" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O6" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="42">
-        <v>148</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>109.237604307034</v>
-      </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="39">
-        <v>4</v>
-      </c>
-      <c r="K7" s="10">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5">
-        <v>20</v>
-      </c>
-      <c r="M7" s="83">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>296</v>
-      </c>
-      <c r="P7" s="42">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="43">
-        <v>127.712812921102</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="41">
-        <v>4</v>
-      </c>
-      <c r="K8" s="10">
-        <v>19</v>
-      </c>
-      <c r="L8" s="5">
-        <v>21</v>
-      </c>
-      <c r="M8" s="83">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N8" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="42">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="43">
-        <v>136.95041722813599</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="64"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="39">
-        <v>4</v>
-      </c>
-      <c r="K9" s="10">
-        <v>20</v>
-      </c>
-      <c r="L9" s="5">
-        <v>22</v>
-      </c>
-      <c r="M9" s="83">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>238</v>
-      </c>
-      <c r="P9" s="42">
-        <v>164</v>
-      </c>
-      <c r="Q9" s="43">
-        <v>155.425625842204</v>
-      </c>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="64"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="41">
-        <v>4</v>
-      </c>
-      <c r="K10" s="10">
-        <v>21</v>
-      </c>
-      <c r="L10" s="5">
-        <v>23</v>
-      </c>
-      <c r="M10" s="83">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="42">
-        <v>148</v>
-      </c>
-      <c r="Q10" s="43">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="64"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="39">
-        <v>4</v>
-      </c>
-      <c r="K11" s="10">
-        <v>4</v>
-      </c>
-      <c r="L11" s="5">
-        <v>40</v>
-      </c>
-      <c r="M11" s="83">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="56">
-        <v>48</v>
-      </c>
-      <c r="P11" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="43">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="64"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="41">
-        <v>4</v>
-      </c>
-      <c r="K12" s="10">
-        <v>5</v>
-      </c>
-      <c r="L12" s="5">
-        <v>41</v>
-      </c>
-      <c r="M12" s="83">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N12" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q12" s="43">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="62">
-        <f t="shared" ref="B13:B15" si="1">((ROUND($L13/10,0))-1)*4+MOD($L13,10)+((J13-1)*16)</f>
-        <v>56</v>
-      </c>
-      <c r="C13" s="62">
-        <f>((+P13*COS($O$3)-Q13*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>163.99999999999997</v>
-      </c>
-      <c r="D13" s="62">
-        <f>((P13*SIN($O$3)+Q13*COS($O$3)+$O$9)*$S$4)</f>
-        <v>82.574374157796029</v>
-      </c>
-      <c r="E13" s="62">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N13/3.1416*180)+$O$5)</f>
-        <v>180</v>
-      </c>
-      <c r="F13" s="61">
-        <v>5</v>
-      </c>
-      <c r="G13" s="64">
-        <f t="shared" ref="G13:G15" si="2">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="39">
-        <v>4</v>
-      </c>
-      <c r="K13" s="10">
-        <v>6</v>
-      </c>
-      <c r="L13" s="5">
-        <v>30</v>
-      </c>
-      <c r="M13" s="84">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q13" s="43">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="62">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="C14" s="62">
-        <f>((+P14*COS($O$3)-Q14*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>180</v>
-      </c>
-      <c r="D14" s="62">
-        <f>((P14*SIN($O$3)+Q14*COS($O$3)+$O$9)*$S$4)</f>
-        <v>73.336769850762039</v>
-      </c>
-      <c r="E14" s="62">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N14/3.1416*180)+$O$5)</f>
-        <v>239.99985969422843</v>
-      </c>
-      <c r="F14" s="61">
-        <v>5</v>
-      </c>
-      <c r="G14" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="41">
-        <v>4</v>
-      </c>
-      <c r="K14" s="10">
-        <v>7</v>
-      </c>
-      <c r="L14" s="5">
-        <v>31</v>
-      </c>
-      <c r="M14" s="84">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="43">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="62">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="C15" s="62">
-        <f>((+P15*COS($O$3)-Q15*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>179.99999999999997</v>
-      </c>
-      <c r="D15" s="62">
-        <f>((P15*SIN($O$3)+Q15*COS($O$3)+$O$9)*$S$4)</f>
-        <v>54.861561236694001</v>
-      </c>
-      <c r="E15" s="62">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N15/3.1416*180)+$O$5)</f>
-        <v>180</v>
-      </c>
-      <c r="F15" s="61">
-        <v>5</v>
-      </c>
-      <c r="G15" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="39">
-        <v>4</v>
-      </c>
-      <c r="K15" s="10">
-        <v>8</v>
-      </c>
-      <c r="L15" s="5">
-        <v>22</v>
-      </c>
-      <c r="M15" s="84">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="42">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="43">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="64"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="41">
-        <v>4</v>
-      </c>
-      <c r="K16" s="10">
-        <v>9</v>
-      </c>
-      <c r="L16" s="5">
-        <v>23</v>
-      </c>
-      <c r="M16" s="83">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N16" s="6">
-        <v>-1.0471975511966001</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="42">
-        <v>132</v>
-      </c>
-      <c r="Q16" s="43">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="64"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="39">
-        <v>4</v>
-      </c>
-      <c r="K17" s="10">
-        <v>10</v>
-      </c>
-      <c r="L17" s="5">
-        <v>13</v>
-      </c>
-      <c r="M17" s="83">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="42">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="43">
-        <v>192.37604307033999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="64"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="41">
-        <v>4</v>
-      </c>
-      <c r="K18" s="10">
-        <v>11</v>
-      </c>
-      <c r="L18" s="5">
-        <v>20</v>
-      </c>
-      <c r="M18" s="83">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="42">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="43">
-        <v>183.138438763306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="62">
-        <f t="shared" ref="B19:B20" si="3">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
-        <v>58</v>
-      </c>
-      <c r="C19" s="62">
-        <f>((+P19*COS($O$3)-Q19*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>196</v>
-      </c>
-      <c r="D19" s="62">
-        <f>((P19*SIN($O$3)+Q19*COS($O$3)+$O$9)*$S$4)</f>
-        <v>82.574374157796001</v>
-      </c>
-      <c r="E19" s="62">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N19/3.1416*180)+$O$5)</f>
-        <v>299.99971938845687</v>
-      </c>
-      <c r="F19" s="61">
-        <v>5</v>
-      </c>
-      <c r="G19" s="64">
-        <f t="shared" ref="G19:G20" si="4">IF($S$3*$S$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="39">
-        <v>4</v>
-      </c>
-      <c r="K19" s="10">
-        <v>12</v>
-      </c>
-      <c r="L19" s="5">
-        <v>32</v>
-      </c>
-      <c r="M19" s="84">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="42">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="43">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="62">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="C20" s="62">
-        <f>((+P20*COS($O$3)-Q20*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>212</v>
-      </c>
-      <c r="D20" s="62">
-        <f>((P20*SIN($O$3)+Q20*COS($O$3)+$O$9)*$S$4)</f>
-        <v>73.33676985076201</v>
-      </c>
-      <c r="E20" s="62">
-        <f>IF(($S$3*$S$4)=1,1,-1)*(($N20/3.1416*180)+$O$5)</f>
-        <v>239.99985969422843</v>
-      </c>
-      <c r="F20" s="61">
-        <v>5</v>
-      </c>
-      <c r="G20" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="41">
-        <v>4</v>
-      </c>
-      <c r="K20" s="10">
-        <v>13</v>
-      </c>
-      <c r="L20" s="5">
-        <v>21</v>
-      </c>
-      <c r="M20" s="84">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1.0471975511966001</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="42">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="43">
-        <v>164.66323014923799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="64"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="39">
-        <v>4</v>
-      </c>
-      <c r="K21" s="10">
-        <v>22</v>
-      </c>
-      <c r="L21" s="5">
-        <v>43</v>
-      </c>
-      <c r="M21" s="83">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N21" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="42">
-        <v>68</v>
-      </c>
-      <c r="Q21" s="43">
-        <v>155.425625842204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="64"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="41">
-        <v>4</v>
-      </c>
-      <c r="K22" s="10">
-        <v>23</v>
-      </c>
-      <c r="L22" s="5">
-        <v>10</v>
-      </c>
-      <c r="M22" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="42">
-        <v>68</v>
-      </c>
-      <c r="Q22" s="43">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="64"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="39">
-        <v>4</v>
-      </c>
-      <c r="K23" s="10">
-        <v>14</v>
-      </c>
-      <c r="L23" s="5">
-        <v>33</v>
-      </c>
-      <c r="M23" s="83">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N23" s="6">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="42">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="43">
-        <v>136.95041722813599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="64"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="41">
-        <v>4</v>
-      </c>
-      <c r="K24" s="10">
-        <v>15</v>
-      </c>
-      <c r="L24" s="5">
-        <v>42</v>
-      </c>
-      <c r="M24" s="83">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N24" s="6">
-        <v>2.0943951023932001</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="42">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="43">
-        <v>127.712812921102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="64"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="39">
-        <v>4</v>
-      </c>
-      <c r="K25" s="45">
-        <v>16</v>
-      </c>
-      <c r="L25" s="46">
-        <v>43</v>
-      </c>
-      <c r="M25" s="83">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N25" s="47">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49">
-        <v>84</v>
-      </c>
-      <c r="Q25" s="50">
-        <v>109.237604307034</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M49" s="8"/>
-    </row>
-    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M50" s="8"/>
-    </row>
-    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M51" s="8"/>
-    </row>
-    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M52" s="8"/>
-    </row>
-    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M55" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U55"/>
